--- a/ja/application_framework/application_framework/handlers/images/JaxRsBeanValidationHandler/images.xlsx
+++ b/ja/application_framework/application_framework/handlers/images/JaxRsBeanValidationHandler/images.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nablarch\source\others\nablarch-document\ja\application_framework\application_framework\handlers\images\JaxRsBeanValidationHandler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672A6A44-5168-482F-9023-E951763569E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,6 +87,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -78,7 +100,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
@@ -89,13 +111,19 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="581025"/>
-          <a:ext cx="2800350" cy="4048125"/>
+          <a:off x="800100" y="238125"/>
+          <a:ext cx="2800350" cy="4391025"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -125,7 +153,17 @@
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>JAX-RS BeanValidation</a:t>
+            <a:t>Jakarta RESTful Web Services</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Bean Validation</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
@@ -154,7 +192,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvPr id="17" name="角丸四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -218,7 +262,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvPr id="18" name="角丸四角形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -282,7 +332,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="2"/>
           <a:endCxn id="4" idx="0"/>
@@ -332,7 +388,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="角丸四角形 50"/>
+        <xdr:cNvPr id="51" name="角丸四角形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -390,7 +452,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="3"/>
           <a:endCxn id="51" idx="1"/>
@@ -440,7 +508,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="フローチャート : 判断 3"/>
+        <xdr:cNvPr id="4" name="フローチャート : 判断 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -498,7 +572,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="2"/>
           <a:endCxn id="18" idx="0"/>
@@ -548,7 +628,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -608,7 +694,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -668,7 +760,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="角丸四角形 39"/>
+        <xdr:cNvPr id="40" name="角丸四角形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -743,7 +841,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="1"/>
           <a:endCxn id="40" idx="1"/>
@@ -784,7 +888,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -826,7 +930,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -859,9 +963,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -894,6 +1015,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1069,12 +1207,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
